--- a/import/example.xlsx
+++ b/import/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandr/Desktop/Excel_two_step_import/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandr/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6D4C5-2539-F546-AC65-B5547C0BD5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603818DE-5A2C-F44B-B586-6D09DD925538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{DB444760-744F-2240-A311-FBD5961790A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{DB444760-744F-2240-A311-FBD5961790A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+  <si>
+    <t>Название 1</t>
+  </si>
+  <si>
+    <t>Название 2</t>
+  </si>
+  <si>
+    <t>КонтентКонтентКонтен 1</t>
+  </si>
+  <si>
+    <t>КонтентКонтентКонтен 2</t>
+  </si>
   <si>
     <t>excerpt 1</t>
   </si>
@@ -111,15 +123,6 @@
   </si>
   <si>
     <t>2019-02-23</t>
-  </si>
-  <si>
-    <t>post title 1</t>
-  </si>
-  <si>
-    <t>Content 1</t>
-  </si>
-  <si>
-    <t>post title 2</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,107 +529,107 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
